--- a/Kong Configuration DEV Env/Kong configuration.xlsx
+++ b/Kong Configuration DEV Env/Kong configuration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUSMUM01\Desktop\Kong Configuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUSMUM01\Desktop\Kong Configuration DEV Env\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Kong Plugins</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>value(text)</t>
+  </si>
+  <si>
+    <t>dockerized upload file jar for token api</t>
+  </si>
+  <si>
+    <t>prometheus</t>
   </si>
 </sst>
 </file>
@@ -561,7 +567,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +626,9 @@
       <c r="F3" t="s">
         <v>59</v>
       </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -661,17 +670,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,6 +704,17 @@
       </c>
       <c r="C2" s="2">
         <v>8083</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8081</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +918,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -983,6 +1004,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="http://172.23.10.182:1337/"/>
